--- a/database/industries/palayesh/shebandar/income/quarterly/dollar.xlsx
+++ b/database/industries/palayesh/shebandar/income/quarterly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\palayesh\shebandar\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shebandar\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1C5E80-34F6-4336-8662-CA5DD16AD06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F09899-A7BC-4E3D-88CB-0BABBE38BE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-08-30 (5)</t>
+  </si>
+  <si>
+    <t>1400-10-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-04-27 (10)</t>
+  </si>
+  <si>
+    <t>1401-04-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-08-30 (4)</t>
   </si>
   <si>
     <t>1401-10-29 (2)</t>
@@ -588,20 +618,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -609,8 +641,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -620,8 +657,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -631,8 +673,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -640,8 +687,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -651,8 +703,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -662,8 +719,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -671,8 +733,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -692,29 +759,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -722,304 +819,519 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>927792</v>
+      </c>
+      <c r="E11" s="13">
+        <v>835233</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1544806</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1765910</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1729081</v>
+      </c>
+      <c r="I11" s="13">
         <v>1626486</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>2359632</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>2246022</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>3413185</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>1908808</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-851080</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-663718</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-1278926</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-1528478</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-1568032</v>
+      </c>
+      <c r="I12" s="11">
         <v>-1428671</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-1987223</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-1764217</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-2968985</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-1806810</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>76713</v>
+      </c>
+      <c r="E13" s="15">
+        <v>171515</v>
+      </c>
+      <c r="F13" s="15">
+        <v>265880</v>
+      </c>
+      <c r="G13" s="15">
+        <v>237432</v>
+      </c>
+      <c r="H13" s="15">
+        <v>161049</v>
+      </c>
+      <c r="I13" s="15">
         <v>197815</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>372409</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>481806</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>444201</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>101998</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-16555</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-12094</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-12565</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-20229</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-8216</v>
+      </c>
+      <c r="I14" s="11">
         <v>-12163</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-45745</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-10755</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-20230</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-10714</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>32414</v>
+      </c>
+      <c r="E16" s="11">
+        <v>16499</v>
+      </c>
+      <c r="F16" s="11">
+        <v>18176</v>
+      </c>
+      <c r="G16" s="11">
+        <v>536</v>
+      </c>
+      <c r="H16" s="11">
+        <v>991</v>
+      </c>
+      <c r="I16" s="11">
         <v>31098</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>-4645</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>383</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>952</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>2380</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>92572</v>
+      </c>
+      <c r="E17" s="15">
+        <v>175921</v>
+      </c>
+      <c r="F17" s="15">
+        <v>271491</v>
+      </c>
+      <c r="G17" s="15">
+        <v>217739</v>
+      </c>
+      <c r="H17" s="15">
+        <v>153824</v>
+      </c>
+      <c r="I17" s="15">
         <v>216750</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>322018</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>471434</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>424922</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>93664</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-401</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-242</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-17534</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-549</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-3657</v>
+      </c>
+      <c r="I18" s="11">
         <v>-811</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>-820</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>-2158</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>-4442</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>-1084</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>17908</v>
+      </c>
+      <c r="E19" s="13">
+        <v>173</v>
+      </c>
+      <c r="F19" s="13">
+        <v>17762</v>
+      </c>
+      <c r="G19" s="13">
+        <v>14999</v>
+      </c>
+      <c r="H19" s="13">
+        <v>17358</v>
+      </c>
+      <c r="I19" s="13">
         <v>18317</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>24047</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>13248</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>14233</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>18190</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>110078</v>
+      </c>
+      <c r="E20" s="17">
+        <v>175852</v>
+      </c>
+      <c r="F20" s="17">
+        <v>271719</v>
+      </c>
+      <c r="G20" s="17">
+        <v>232188</v>
+      </c>
+      <c r="H20" s="17">
+        <v>167525</v>
+      </c>
+      <c r="I20" s="17">
         <v>234257</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>345245</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>482525</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>434713</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>110769</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-21926</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-34012</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-23181</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-44632</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-31017</v>
+      </c>
+      <c r="I21" s="13">
         <v>-44137</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>-4461</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>-96505</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-86876</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-22154</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>88153</v>
+      </c>
+      <c r="E22" s="17">
+        <v>141840</v>
+      </c>
+      <c r="F22" s="17">
+        <v>248538</v>
+      </c>
+      <c r="G22" s="17">
+        <v>187556</v>
+      </c>
+      <c r="H22" s="17">
+        <v>136508</v>
+      </c>
+      <c r="I22" s="17">
         <v>190120</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>340784</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>386020</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>347837</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>88615</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>88153</v>
+      </c>
+      <c r="E24" s="17">
+        <v>141840</v>
+      </c>
+      <c r="F24" s="17">
+        <v>248538</v>
+      </c>
+      <c r="G24" s="17">
+        <v>187556</v>
+      </c>
+      <c r="H24" s="17">
+        <v>136508</v>
+      </c>
+      <c r="I24" s="17">
         <v>190120</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>340784</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>386020</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>347837</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>88615</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
@@ -1037,31 +1349,61 @@
       <c r="H25" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <v>0</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
+      <c r="M25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
+        <v>609167</v>
+      </c>
+      <c r="E26" s="11">
+        <v>494340</v>
+      </c>
+      <c r="F26" s="11">
+        <v>550033</v>
+      </c>
+      <c r="G26" s="11">
+        <v>575835</v>
+      </c>
+      <c r="H26" s="11">
+        <v>514698</v>
+      </c>
+      <c r="I26" s="11">
         <v>471847</v>
       </c>
-      <c r="E26" s="11">
+      <c r="J26" s="11">
         <v>487741</v>
       </c>
-      <c r="F26" s="11">
+      <c r="K26" s="11">
         <v>457183</v>
       </c>
-      <c r="G26" s="11">
+      <c r="L26" s="11">
         <v>433140</v>
       </c>
-      <c r="H26" s="11">
+      <c r="M26" s="11">
         <v>386675</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
@@ -1079,8 +1421,23 @@
       <c r="H27" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <v>0</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1088,6 +1445,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/palayesh/shebandar/income/quarterly/dollar.xlsx
+++ b/database/industries/palayesh/shebandar/income/quarterly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shebandar\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shebandar\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F09899-A7BC-4E3D-88CB-0BABBE38BE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84F42DC-726E-4295-B95F-2412CA04EB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-30 (5)</t>
-  </si>
-  <si>
     <t>1400-10-30 (2)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-29 (2)</t>
   </si>
   <si>
-    <t>1401-10-29 (7)</t>
+    <t>1402-02-25 (8)</t>
   </si>
   <si>
     <t>1401-04-30</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-02-25</t>
   </si>
   <si>
     <t>فروش</t>
@@ -622,18 +622,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -647,7 +648,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +664,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -679,7 +680,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -693,7 +694,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -709,7 +710,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -725,7 +726,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -739,7 +740,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -775,7 +776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -811,7 +812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -825,151 +826,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>927792</v>
+        <v>835233</v>
       </c>
       <c r="E11" s="13">
-        <v>835233</v>
+        <v>1544806</v>
       </c>
       <c r="F11" s="13">
-        <v>1544806</v>
+        <v>1765910</v>
       </c>
       <c r="G11" s="13">
-        <v>1765910</v>
+        <v>1729081</v>
       </c>
       <c r="H11" s="13">
-        <v>1729081</v>
+        <v>1626486</v>
       </c>
       <c r="I11" s="13">
-        <v>1626486</v>
+        <v>2359632</v>
       </c>
       <c r="J11" s="13">
-        <v>2359632</v>
+        <v>2246022</v>
       </c>
       <c r="K11" s="13">
-        <v>2246022</v>
+        <v>3413185</v>
       </c>
       <c r="L11" s="13">
-        <v>3413185</v>
+        <v>1908808</v>
       </c>
       <c r="M11" s="13">
-        <v>1908808</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1702125</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-851080</v>
+        <v>-663718</v>
       </c>
       <c r="E12" s="11">
-        <v>-663718</v>
+        <v>-1278926</v>
       </c>
       <c r="F12" s="11">
-        <v>-1278926</v>
+        <v>-1528478</v>
       </c>
       <c r="G12" s="11">
-        <v>-1528478</v>
+        <v>-1568032</v>
       </c>
       <c r="H12" s="11">
-        <v>-1568032</v>
+        <v>-1428671</v>
       </c>
       <c r="I12" s="11">
-        <v>-1428671</v>
+        <v>-1987223</v>
       </c>
       <c r="J12" s="11">
-        <v>-1987223</v>
+        <v>-1764217</v>
       </c>
       <c r="K12" s="11">
-        <v>-1764217</v>
+        <v>-2968985</v>
       </c>
       <c r="L12" s="11">
-        <v>-2968985</v>
+        <v>-1806810</v>
       </c>
       <c r="M12" s="11">
-        <v>-1806810</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1530236</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>76713</v>
+        <v>171515</v>
       </c>
       <c r="E13" s="15">
-        <v>171515</v>
+        <v>265880</v>
       </c>
       <c r="F13" s="15">
-        <v>265880</v>
+        <v>237432</v>
       </c>
       <c r="G13" s="15">
-        <v>237432</v>
+        <v>161049</v>
       </c>
       <c r="H13" s="15">
-        <v>161049</v>
+        <v>197815</v>
       </c>
       <c r="I13" s="15">
-        <v>197815</v>
+        <v>372409</v>
       </c>
       <c r="J13" s="15">
-        <v>372409</v>
+        <v>481806</v>
       </c>
       <c r="K13" s="15">
-        <v>481806</v>
+        <v>444201</v>
       </c>
       <c r="L13" s="15">
-        <v>444201</v>
+        <v>101998</v>
       </c>
       <c r="M13" s="15">
-        <v>101998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>171888</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-16555</v>
+        <v>-12094</v>
       </c>
       <c r="E14" s="11">
-        <v>-12094</v>
+        <v>-12565</v>
       </c>
       <c r="F14" s="11">
-        <v>-12565</v>
+        <v>-20229</v>
       </c>
       <c r="G14" s="11">
-        <v>-20229</v>
+        <v>-8216</v>
       </c>
       <c r="H14" s="11">
-        <v>-8216</v>
+        <v>-12163</v>
       </c>
       <c r="I14" s="11">
-        <v>-12163</v>
+        <v>-45745</v>
       </c>
       <c r="J14" s="11">
-        <v>-45745</v>
+        <v>-10755</v>
       </c>
       <c r="K14" s="11">
-        <v>-10755</v>
+        <v>-20230</v>
       </c>
       <c r="L14" s="11">
-        <v>-20230</v>
+        <v>-10714</v>
       </c>
       <c r="M14" s="11">
-        <v>-10714</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-12910</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1005,259 +1006,259 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>32414</v>
+        <v>16499</v>
       </c>
       <c r="E16" s="11">
-        <v>16499</v>
+        <v>18176</v>
       </c>
       <c r="F16" s="11">
-        <v>18176</v>
+        <v>536</v>
       </c>
       <c r="G16" s="11">
-        <v>536</v>
+        <v>991</v>
       </c>
       <c r="H16" s="11">
-        <v>991</v>
+        <v>31098</v>
       </c>
       <c r="I16" s="11">
-        <v>31098</v>
+        <v>-4645</v>
       </c>
       <c r="J16" s="11">
-        <v>-4645</v>
+        <v>383</v>
       </c>
       <c r="K16" s="11">
-        <v>383</v>
+        <v>952</v>
       </c>
       <c r="L16" s="11">
-        <v>952</v>
+        <v>2380</v>
       </c>
       <c r="M16" s="11">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>92572</v>
+        <v>175921</v>
       </c>
       <c r="E17" s="15">
-        <v>175921</v>
+        <v>271491</v>
       </c>
       <c r="F17" s="15">
-        <v>271491</v>
+        <v>217739</v>
       </c>
       <c r="G17" s="15">
-        <v>217739</v>
+        <v>153824</v>
       </c>
       <c r="H17" s="15">
-        <v>153824</v>
+        <v>216750</v>
       </c>
       <c r="I17" s="15">
-        <v>216750</v>
+        <v>322018</v>
       </c>
       <c r="J17" s="15">
-        <v>322018</v>
+        <v>471434</v>
       </c>
       <c r="K17" s="15">
-        <v>471434</v>
+        <v>424922</v>
       </c>
       <c r="L17" s="15">
-        <v>424922</v>
+        <v>93664</v>
       </c>
       <c r="M17" s="15">
-        <v>93664</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>159730</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-401</v>
+        <v>-242</v>
       </c>
       <c r="E18" s="11">
-        <v>-242</v>
+        <v>-17534</v>
       </c>
       <c r="F18" s="11">
-        <v>-17534</v>
+        <v>-549</v>
       </c>
       <c r="G18" s="11">
-        <v>-549</v>
+        <v>-3657</v>
       </c>
       <c r="H18" s="11">
-        <v>-3657</v>
+        <v>-811</v>
       </c>
       <c r="I18" s="11">
-        <v>-811</v>
+        <v>-820</v>
       </c>
       <c r="J18" s="11">
-        <v>-820</v>
+        <v>-2158</v>
       </c>
       <c r="K18" s="11">
-        <v>-2158</v>
+        <v>-4442</v>
       </c>
       <c r="L18" s="11">
-        <v>-4442</v>
+        <v>-1084</v>
       </c>
       <c r="M18" s="11">
-        <v>-1084</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-305</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>17908</v>
+        <v>173</v>
       </c>
       <c r="E19" s="13">
-        <v>173</v>
+        <v>17762</v>
       </c>
       <c r="F19" s="13">
-        <v>17762</v>
+        <v>14999</v>
       </c>
       <c r="G19" s="13">
-        <v>14999</v>
+        <v>17358</v>
       </c>
       <c r="H19" s="13">
-        <v>17358</v>
+        <v>18317</v>
       </c>
       <c r="I19" s="13">
-        <v>18317</v>
+        <v>24047</v>
       </c>
       <c r="J19" s="13">
-        <v>24047</v>
+        <v>13248</v>
       </c>
       <c r="K19" s="13">
-        <v>13248</v>
+        <v>14233</v>
       </c>
       <c r="L19" s="13">
-        <v>14233</v>
+        <v>18190</v>
       </c>
       <c r="M19" s="13">
-        <v>18190</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>12346</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>110078</v>
+        <v>175852</v>
       </c>
       <c r="E20" s="17">
-        <v>175852</v>
+        <v>271719</v>
       </c>
       <c r="F20" s="17">
-        <v>271719</v>
+        <v>232188</v>
       </c>
       <c r="G20" s="17">
-        <v>232188</v>
+        <v>167525</v>
       </c>
       <c r="H20" s="17">
-        <v>167525</v>
+        <v>234257</v>
       </c>
       <c r="I20" s="17">
-        <v>234257</v>
+        <v>345245</v>
       </c>
       <c r="J20" s="17">
-        <v>345245</v>
+        <v>482525</v>
       </c>
       <c r="K20" s="17">
-        <v>482525</v>
+        <v>434713</v>
       </c>
       <c r="L20" s="17">
-        <v>434713</v>
+        <v>110769</v>
       </c>
       <c r="M20" s="17">
-        <v>110769</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>171771</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-21926</v>
+        <v>-34012</v>
       </c>
       <c r="E21" s="13">
-        <v>-34012</v>
+        <v>-23181</v>
       </c>
       <c r="F21" s="13">
-        <v>-23181</v>
+        <v>-44632</v>
       </c>
       <c r="G21" s="13">
-        <v>-44632</v>
+        <v>-31017</v>
       </c>
       <c r="H21" s="13">
-        <v>-31017</v>
+        <v>-44137</v>
       </c>
       <c r="I21" s="13">
-        <v>-44137</v>
+        <v>-4461</v>
       </c>
       <c r="J21" s="13">
-        <v>-4461</v>
+        <v>-96505</v>
       </c>
       <c r="K21" s="13">
-        <v>-96505</v>
+        <v>-86876</v>
       </c>
       <c r="L21" s="13">
-        <v>-86876</v>
+        <v>-22154</v>
       </c>
       <c r="M21" s="13">
-        <v>-22154</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>42540</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>88153</v>
+        <v>141840</v>
       </c>
       <c r="E22" s="17">
-        <v>141840</v>
+        <v>248538</v>
       </c>
       <c r="F22" s="17">
-        <v>248538</v>
+        <v>187556</v>
       </c>
       <c r="G22" s="17">
-        <v>187556</v>
+        <v>136508</v>
       </c>
       <c r="H22" s="17">
-        <v>136508</v>
+        <v>190120</v>
       </c>
       <c r="I22" s="17">
-        <v>190120</v>
+        <v>340784</v>
       </c>
       <c r="J22" s="17">
-        <v>340784</v>
+        <v>386020</v>
       </c>
       <c r="K22" s="17">
-        <v>386020</v>
+        <v>347837</v>
       </c>
       <c r="L22" s="17">
-        <v>347837</v>
+        <v>88615</v>
       </c>
       <c r="M22" s="17">
-        <v>88615</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>214311</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
@@ -1293,43 +1294,43 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>88153</v>
+        <v>141840</v>
       </c>
       <c r="E24" s="17">
-        <v>141840</v>
+        <v>248538</v>
       </c>
       <c r="F24" s="17">
-        <v>248538</v>
+        <v>187556</v>
       </c>
       <c r="G24" s="17">
-        <v>187556</v>
+        <v>136508</v>
       </c>
       <c r="H24" s="17">
-        <v>136508</v>
+        <v>190120</v>
       </c>
       <c r="I24" s="17">
-        <v>190120</v>
+        <v>340784</v>
       </c>
       <c r="J24" s="17">
-        <v>340784</v>
+        <v>386020</v>
       </c>
       <c r="K24" s="17">
-        <v>386020</v>
+        <v>347837</v>
       </c>
       <c r="L24" s="17">
-        <v>347837</v>
+        <v>88615</v>
       </c>
       <c r="M24" s="17">
-        <v>88615</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>214311</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>41</v>
       </c>
@@ -1365,43 +1366,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>609167</v>
+        <v>494340</v>
       </c>
       <c r="E26" s="11">
-        <v>494340</v>
+        <v>550033</v>
       </c>
       <c r="F26" s="11">
-        <v>550033</v>
+        <v>575835</v>
       </c>
       <c r="G26" s="11">
-        <v>575835</v>
+        <v>514698</v>
       </c>
       <c r="H26" s="11">
-        <v>514698</v>
+        <v>471847</v>
       </c>
       <c r="I26" s="11">
-        <v>471847</v>
+        <v>487741</v>
       </c>
       <c r="J26" s="11">
-        <v>487741</v>
+        <v>457183</v>
       </c>
       <c r="K26" s="11">
-        <v>457183</v>
+        <v>433140</v>
       </c>
       <c r="L26" s="11">
-        <v>433140</v>
+        <v>386675</v>
       </c>
       <c r="M26" s="11">
-        <v>386675</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>295562</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
